--- a/Resources/gradient boosted tree final.xlsx
+++ b/Resources/gradient boosted tree final.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://communsol-my.sharepoint.com/personal/judith_calvo_communitysolutions_org/Documents/_aUCB Data Analytics Bootcamp Class/Final Project Folder/ML/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{BB22E447-6C27-4AED-957E-88E78E3E4D34}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{86CA1215-48D7-492E-8446-F888276658D9}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{BB22E447-6C27-4AED-957E-88E78E3E4D34}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{7D199574-F339-4F77-9CFF-AEE87DF9C4AE}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="1030" windowWidth="17280" windowHeight="8920" xr2:uid="{4D4963E7-B7D1-4EE7-90EF-48954F738AD4}"/>
+    <workbookView xWindow="22930" yWindow="-110" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{4D4963E7-B7D1-4EE7-90EF-48954F738AD4}"/>
   </bookViews>
   <sheets>
-    <sheet name="comparison of learning rates" sheetId="1" r:id="rId1"/>
+    <sheet name="classification" sheetId="1" r:id="rId1"/>
+    <sheet name="learning rates" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Learning rate</t>
   </si>
@@ -87,9 +88,6 @@
     <t>Classification Report</t>
   </si>
   <si>
-    <t>Gradient Boosted Tree Comparison of Learning Rates</t>
-  </si>
-  <si>
     <t>precision</t>
   </si>
   <si>
@@ -105,20 +103,17 @@
     <t>accuracy</t>
   </si>
   <si>
-    <t>macro avg</t>
-  </si>
-  <si>
-    <t>weighted avg</t>
-  </si>
-  <si>
-    <t>Component</t>
+    <t>Macro avg</t>
+  </si>
+  <si>
+    <t>Weighted avg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,12 +129,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -147,6 +136,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -197,15 +205,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -215,10 +220,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,358 +543,385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7462679F-6AF1-480E-922E-235275EA0128}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" customWidth="1"/>
+    <col min="1" max="1" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="F1" s="9" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F2" s="9" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9">
+      <c r="B2" s="8">
         <v>0.68</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="G4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="F5" t="s">
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="F6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="5">
+      <c r="B6" s="4">
         <v>71</v>
       </c>
-      <c r="H6" s="6">
+      <c r="C6" s="5">
         <v>65</v>
       </c>
-      <c r="I6">
-        <f>SUM(G6:H6)</f>
+      <c r="D6">
+        <f>SUM(B6:C6)</f>
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0.1</v>
-      </c>
-      <c r="F7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7">
+      <c r="B7" s="6">
         <v>34</v>
       </c>
-      <c r="H7" s="8">
+      <c r="C7" s="7">
         <v>140</v>
       </c>
-      <c r="I7">
-        <f>SUM(G7:H7)</f>
+      <c r="D7">
+        <f>SUM(B7:C7)</f>
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>1</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ref="G8:H8" si="0">SUM(G6:G7)</f>
+        <f t="shared" ref="B8:C8" si="0">SUM(B6:B7)</f>
         <v>105</v>
       </c>
-      <c r="H8">
+      <c r="C8">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="I8">
-        <f>SUM(I6:I7)</f>
+      <c r="D8">
+        <f>SUM(D6:D7)</f>
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>0.68</v>
+      </c>
+      <c r="C18">
+        <v>0.52</v>
+      </c>
+      <c r="D18">
+        <v>0.59</v>
+      </c>
+      <c r="E18">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>0.68</v>
+      </c>
+      <c r="C19">
+        <v>0.8</v>
+      </c>
+      <c r="D19">
+        <v>0.74</v>
+      </c>
+      <c r="E19">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>0.68</v>
+      </c>
+      <c r="E20">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0.68</v>
+      </c>
+      <c r="C21">
+        <v>0.66</v>
+      </c>
+      <c r="D21">
+        <v>0.66</v>
+      </c>
+      <c r="E21">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>0.68</v>
+      </c>
+      <c r="C22">
+        <v>0.68</v>
+      </c>
+      <c r="D22">
+        <v>0.67</v>
+      </c>
+      <c r="E22">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259618D5-8CA6-44ED-89B6-8475036FA738}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B9">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0.58699999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="C3" s="12">
         <v>0.65200000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="F10" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
         <v>0.25</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="B4" s="12">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B12">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>0.79600000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>0.75</v>
-      </c>
-      <c r="F19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19">
-        <v>0.68</v>
-      </c>
-      <c r="H19">
-        <v>0.52</v>
-      </c>
-      <c r="I19">
-        <v>0.59</v>
-      </c>
-      <c r="J19">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20">
-        <v>0.68</v>
-      </c>
-      <c r="H20">
-        <v>0.8</v>
-      </c>
-      <c r="I20">
-        <v>0.74</v>
-      </c>
-      <c r="J20">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21">
-        <v>0.68</v>
-      </c>
-      <c r="J21">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="F22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22">
-        <v>0.68</v>
-      </c>
-      <c r="H22">
-        <v>0.66</v>
-      </c>
-      <c r="I22">
-        <v>0.66</v>
-      </c>
-      <c r="J22">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23">
-        <v>0.68</v>
-      </c>
-      <c r="H23">
-        <v>0.68</v>
-      </c>
-      <c r="I23">
-        <v>0.67</v>
-      </c>
-      <c r="J23">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24">
+      <c r="B7" s="12">
         <v>0.82599999999999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25">
+      <c r="C7" s="12">
         <v>0.63200000000000001</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="9"/>
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="9"/>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="9"/>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="9"/>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="9"/>
+      <c r="B23" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1130,16 +1167,16 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F84534C-940B-4A9E-80FE-10F850F40577}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="076ed714-3a77-4f17-8bbf-04471c3fc2e1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b42430d8-c205-408e-a6b2-f7bcf1ddda46"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b42430d8-c205-408e-a6b2-f7bcf1ddda46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="076ed714-3a77-4f17-8bbf-04471c3fc2e1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
